--- a/Documentacion/Tablas/DiccionarioDatos.xlsx
+++ b/Documentacion/Tablas/DiccionarioDatos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="120">
   <si>
     <t>Nombre</t>
   </si>
@@ -96,9 +96,6 @@
     <t>TipoIdentificacion</t>
   </si>
   <si>
-    <t>id del tipo de identificacion del usuario</t>
-  </si>
-  <si>
     <t>datosEntidadPublica</t>
   </si>
   <si>
@@ -108,10 +105,280 @@
     <t>celular</t>
   </si>
   <si>
-    <t>Numero de celular de el cordinador responsable en la entidad publica.</t>
-  </si>
-  <si>
-    <t>Id de la ciudad de residencia del cordonador responsable en la entidad publica.</t>
+    <t>coordinadorResponsable</t>
+  </si>
+  <si>
+    <t>Nombre de el coordinador responsable en la entidad pública.</t>
+  </si>
+  <si>
+    <t>Correo de el coordinador responsable en la entidad pública.</t>
+  </si>
+  <si>
+    <t>dependenciaResponsable</t>
+  </si>
+  <si>
+    <t>Dependencia de la entidad publica.</t>
+  </si>
+  <si>
+    <t>direccionContacto</t>
+  </si>
+  <si>
+    <t>Nombre de la entidad publica.</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>id del tipo de identificación del usuario</t>
+  </si>
+  <si>
+    <t>Numero de celular de el coordinador responsable en la entidad publica.</t>
+  </si>
+  <si>
+    <t>Id de la ciudad de residencia del coordinador responsable en la entidad publica.</t>
+  </si>
+  <si>
+    <t>Id del departamento de residencia del coordinador responsable en la entidad publica.</t>
+  </si>
+  <si>
+    <t>Numero de teléfono de la entidad publica.</t>
+  </si>
+  <si>
+    <t>datosProyecto</t>
+  </si>
+  <si>
+    <t>avance</t>
+  </si>
+  <si>
+    <t>Numero entre 0 y 100 que indica el avance del proyecto.</t>
+  </si>
+  <si>
+    <t>cartaPresentacion</t>
+  </si>
+  <si>
+    <t>contactoEntidad</t>
+  </si>
+  <si>
+    <t>Indica si tiene contacto con la entidad publica o no.</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>duracion</t>
+  </si>
+  <si>
+    <t>metodologia</t>
+  </si>
+  <si>
+    <t>Nombre del proyecto.</t>
+  </si>
+  <si>
+    <t>objetivos</t>
+  </si>
+  <si>
+    <t>Objetivos del proyecto.</t>
+  </si>
+  <si>
+    <t>observaciones</t>
+  </si>
+  <si>
+    <t>Observaciones del proyecto.</t>
+  </si>
+  <si>
+    <t>relacion</t>
+  </si>
+  <si>
+    <t>datosUniversidad</t>
+  </si>
+  <si>
+    <t>Id de la ciudad en la que esta ubicada la universidad.</t>
+  </si>
+  <si>
+    <t>nivelFormacion</t>
+  </si>
+  <si>
+    <t>Nombre de la universidad.</t>
+  </si>
+  <si>
+    <t>nombrePrograma</t>
+  </si>
+  <si>
+    <t>Nombre del programa que cursa el beneficiario.</t>
+  </si>
+  <si>
+    <t>semestre</t>
+  </si>
+  <si>
+    <t>Semestre que esta cursando el beneficiario.</t>
+  </si>
+  <si>
+    <t>semestreInicioTD</t>
+  </si>
+  <si>
+    <t>Semestre en el que el beneficiario inicio con Talento Digital.</t>
+  </si>
+  <si>
+    <t>configuracion</t>
+  </si>
+  <si>
+    <t>Raiz</t>
+  </si>
+  <si>
+    <t>Contiene las configuraciones del sistema.</t>
+  </si>
+  <si>
+    <t>convocatorias</t>
+  </si>
+  <si>
+    <t>Contiene las convocatorias de talento digital.</t>
+  </si>
+  <si>
+    <t>ID_CONVOCATORIA</t>
+  </si>
+  <si>
+    <t>Identificador único de la entidad convocatoria.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Id de la convocatoria</t>
+  </si>
+  <si>
+    <t>Nombre de la convocatoria</t>
+  </si>
+  <si>
+    <t>ID_ESTADOS</t>
+  </si>
+  <si>
+    <t>estados</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>Contiene los estados del sistema.</t>
+  </si>
+  <si>
+    <t>identificador del estado.</t>
+  </si>
+  <si>
+    <t>nombre del estado.</t>
+  </si>
+  <si>
+    <t>tiposIdentificacion</t>
+  </si>
+  <si>
+    <t>ID_TIPO_IDENTIFICACION</t>
+  </si>
+  <si>
+    <t>tipoIdentificacion</t>
+  </si>
+  <si>
+    <t>Objeto que contiene la información del proyecto que el beneficiario desea realizar</t>
+  </si>
+  <si>
+    <t>Indica si necesita carta de presentación o no para su proyecto.</t>
+  </si>
+  <si>
+    <t>Duración en meses del proyecto.</t>
+  </si>
+  <si>
+    <t>Metodología a seguir en el proyecto.</t>
+  </si>
+  <si>
+    <t>Relación que tiene el proyecto con la estrategia de gobierno en línea.</t>
+  </si>
+  <si>
+    <t>Objeto que contiene los datos de la universidad en la que esta estudiando el beneficiario.</t>
+  </si>
+  <si>
+    <t>Id del departamento en que esta ubicada la universidad.</t>
+  </si>
+  <si>
+    <t>Id del nivel de formación del beneficiario.</t>
+  </si>
+  <si>
+    <t>Identificador único de la entidad estado.</t>
+  </si>
+  <si>
+    <t>Contiene los tipos de identificación usados en el sistema.</t>
+  </si>
+  <si>
+    <t>Identificador único de la entidad tipo de Identificación.</t>
+  </si>
+  <si>
+    <t>identificador del tipo de identificación.</t>
+  </si>
+  <si>
+    <t>nombre del tipo de identificación.</t>
+  </si>
+  <si>
+    <t>rolesUsuario</t>
+  </si>
+  <si>
+    <t>Contiene el rol de cada usuario.</t>
+  </si>
+  <si>
+    <t>ID_ROL_USUARIO</t>
+  </si>
+  <si>
+    <t>rolUsuario</t>
+  </si>
+  <si>
+    <t>rol</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>id del rol.</t>
+  </si>
+  <si>
+    <t>identificador del usuario.</t>
+  </si>
+  <si>
+    <t>Dirección de contacto de la entidad pública.</t>
+  </si>
+  <si>
+    <t>usuarios</t>
+  </si>
+  <si>
+    <t>Contiene el listado de usuarios funcionarios del sistema.</t>
+  </si>
+  <si>
+    <t>ID_USUARIO</t>
+  </si>
+  <si>
+    <t>Identificador unico de la entidad usuario.</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>Nombre del funcionario.</t>
+  </si>
+  <si>
+    <t>estado del funcionario.</t>
+  </si>
+  <si>
+    <t>Correo del funcionario.</t>
+  </si>
+  <si>
+    <t>Breve descripción del proyecto a realizar por el beneficiario.</t>
+  </si>
+  <si>
+    <t>Descripción de la convocatoria.</t>
+  </si>
+  <si>
+    <t>descripción del estado.</t>
+  </si>
+  <si>
+    <t>Descripción del tipo de identificación.</t>
+  </si>
+  <si>
+    <t>Identificador único de la entidad rol Usuario</t>
   </si>
 </sst>
 </file>
@@ -165,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,8 +440,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -194,18 +476,136 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="133">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -215,6 +615,63 @@
     <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -224,6 +681,63 @@
     <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,185 +1067,900 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D63" sqref="A1:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="58.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" t="s">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30">
+      <c r="A20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30">
-      <c r="A12" t="s">
+      <c r="D20" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30">
+      <c r="A21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30">
+      <c r="A24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30">
+      <c r="A30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30">
+      <c r="A31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
+      <c r="D32" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30">
+      <c r="A33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30">
+      <c r="A38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30">
+      <c r="A50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30">
+      <c r="A51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30">
+      <c r="A59" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
